--- a/Code/Results/Cases/Case_4_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.42605718672781</v>
+        <v>15.33839062041541</v>
       </c>
       <c r="C2">
-        <v>6.947097659750863</v>
+        <v>9.166594144469427</v>
       </c>
       <c r="D2">
-        <v>9.704809927710398</v>
+        <v>14.07034218581211</v>
       </c>
       <c r="E2">
-        <v>9.090572102774567</v>
+        <v>14.79430189541348</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>28.53968245850682</v>
+        <v>41.44253356168132</v>
       </c>
       <c r="H2">
-        <v>10.63606988372999</v>
+        <v>17.58203912378771</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.086185227326473</v>
+        <v>8.826199713099319</v>
       </c>
       <c r="K2">
-        <v>10.85469935174835</v>
+        <v>11.10866066631313</v>
       </c>
       <c r="L2">
-        <v>7.392349239790567</v>
+        <v>11.8215222220309</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>13.54212483265364</v>
+        <v>20.93027811675206</v>
       </c>
       <c r="O2">
-        <v>17.96993148881828</v>
+        <v>28.42691061579772</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.59415765881032</v>
+        <v>15.15663643075777</v>
       </c>
       <c r="C3">
-        <v>6.935098973175416</v>
+        <v>9.165480868125467</v>
       </c>
       <c r="D3">
-        <v>9.469977493266644</v>
+        <v>14.06382243465257</v>
       </c>
       <c r="E3">
-        <v>9.02914968663227</v>
+        <v>14.81636582425137</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>28.32517911798638</v>
+        <v>41.53610834912766</v>
       </c>
       <c r="H3">
-        <v>10.69129708115311</v>
+        <v>17.62860842368504</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.115295011497912</v>
+        <v>8.838320442575942</v>
       </c>
       <c r="K3">
-        <v>10.18027333396168</v>
+        <v>10.97476941970377</v>
       </c>
       <c r="L3">
-        <v>7.256904085688105</v>
+        <v>11.82261383206795</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>13.7373671942316</v>
+        <v>20.98957976191751</v>
       </c>
       <c r="O3">
-        <v>17.99010702050715</v>
+        <v>28.50369667394247</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.06094060923949</v>
+        <v>15.04668084953194</v>
       </c>
       <c r="C4">
-        <v>6.928417748654812</v>
+        <v>9.165083734739749</v>
       </c>
       <c r="D4">
-        <v>9.32806014938488</v>
+        <v>14.06231482897556</v>
       </c>
       <c r="E4">
-        <v>8.995472940114938</v>
+        <v>14.83191479966953</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>28.2167824655381</v>
+        <v>41.60278602852386</v>
       </c>
       <c r="H4">
-        <v>10.73053188148917</v>
+        <v>17.65951432980759</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.133890425724498</v>
+        <v>8.846186883909763</v>
       </c>
       <c r="K4">
-        <v>9.742772490928065</v>
+        <v>10.89344953719039</v>
       </c>
       <c r="L4">
-        <v>7.175410753962717</v>
+        <v>11.82480708734968</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>13.86004586071336</v>
+        <v>21.02770541563973</v>
       </c>
       <c r="O4">
-        <v>18.01421691158779</v>
+        <v>28.55555840136425</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.83819388916568</v>
+        <v>15.00233554053788</v>
       </c>
       <c r="C5">
-        <v>6.925866599690936</v>
+        <v>9.164994345513232</v>
       </c>
       <c r="D5">
-        <v>9.27087140919946</v>
+        <v>14.06233001505115</v>
       </c>
       <c r="E5">
-        <v>8.982757159774408</v>
+        <v>14.83875490236781</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>28.17832904763047</v>
+        <v>41.63227234944149</v>
       </c>
       <c r="H5">
-        <v>10.74782200603197</v>
+        <v>17.67269049347093</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.141651378490714</v>
+        <v>8.849499510513446</v>
       </c>
       <c r="K5">
-        <v>9.558612019821568</v>
+        <v>10.86057038679627</v>
       </c>
       <c r="L5">
-        <v>7.142655236631194</v>
+        <v>11.82608498272208</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>13.91076156044706</v>
+        <v>21.04367423421088</v>
       </c>
       <c r="O5">
-        <v>18.02689541488769</v>
+        <v>28.57787739107056</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.80088358318776</v>
+        <v>14.99500140112885</v>
       </c>
       <c r="C6">
-        <v>6.925453313195833</v>
+        <v>9.164983890356995</v>
       </c>
       <c r="D6">
-        <v>9.261416273244119</v>
+        <v>14.06237061269991</v>
       </c>
       <c r="E6">
-        <v>8.980706334468222</v>
+        <v>14.83992113449052</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>28.17228489566003</v>
+        <v>41.6373081897915</v>
       </c>
       <c r="H6">
-        <v>10.75077056482096</v>
+        <v>17.67491353208473</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.142951189357204</v>
+        <v>8.850056040369751</v>
       </c>
       <c r="K6">
-        <v>9.527677906259505</v>
+        <v>10.85512752643016</v>
       </c>
       <c r="L6">
-        <v>7.137244580186912</v>
+        <v>11.82632040820547</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>13.91922708985542</v>
+        <v>21.04635199145783</v>
       </c>
       <c r="O6">
-        <v>18.02917027038743</v>
+        <v>28.58165498807267</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.05795838964523</v>
+        <v>15.04608085573448</v>
       </c>
       <c r="C7">
-        <v>6.928382649845716</v>
+        <v>9.16508223531593</v>
       </c>
       <c r="D7">
-        <v>9.327286179215317</v>
+        <v>14.06231248232276</v>
       </c>
       <c r="E7">
-        <v>8.995297381114218</v>
+        <v>14.83200500739462</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>28.21624091029036</v>
+        <v>41.60317432573544</v>
       </c>
       <c r="H7">
-        <v>10.73075984035413</v>
+        <v>17.65968967220154</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.133994348837442</v>
+        <v>8.846231125555894</v>
       </c>
       <c r="K7">
-        <v>9.740312608869415</v>
+        <v>10.89300502058179</v>
       </c>
       <c r="L7">
-        <v>7.174967120654673</v>
+        <v>11.82482276473162</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>13.86072687739091</v>
+        <v>21.02791902466179</v>
       </c>
       <c r="O7">
-        <v>18.0143764686006</v>
+        <v>28.55585460630247</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.14397055104647</v>
+        <v>15.27541085573456</v>
       </c>
       <c r="C8">
-        <v>6.942817509816249</v>
+        <v>9.166151092922313</v>
       </c>
       <c r="D8">
-        <v>9.623411833985136</v>
+        <v>14.06757752831311</v>
       </c>
       <c r="E8">
-        <v>9.068551867540801</v>
+        <v>14.80149437875584</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>28.46080241115688</v>
+        <v>41.47288152470301</v>
       </c>
       <c r="H8">
-        <v>10.65398408042106</v>
+        <v>17.59761653572248</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.096073456815018</v>
+        <v>8.83029106714835</v>
       </c>
       <c r="K8">
-        <v>10.62701655728786</v>
+        <v>11.06233172076797</v>
       </c>
       <c r="L8">
-        <v>7.345321302453202</v>
+        <v>11.82158323179333</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>13.60887534065687</v>
+        <v>20.95037029969135</v>
       </c>
       <c r="O8">
-        <v>17.97439847069332</v>
+        <v>28.45240751999965</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.08955825995125</v>
+        <v>15.73595354289211</v>
       </c>
       <c r="C9">
-        <v>6.976617472585438</v>
+        <v>9.170501623265402</v>
       </c>
       <c r="D9">
-        <v>10.21900254878487</v>
+        <v>14.09760243227134</v>
       </c>
       <c r="E9">
-        <v>9.244491925187617</v>
+        <v>14.75752456394244</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>29.13100609621361</v>
+        <v>41.29073300237437</v>
       </c>
       <c r="H9">
-        <v>10.54742532741261</v>
+        <v>17.49422199037434</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.027361659456347</v>
+        <v>8.802385237399479</v>
       </c>
       <c r="K9">
-        <v>12.180229616059</v>
+        <v>11.39986687117076</v>
       </c>
       <c r="L9">
-        <v>7.691160425192828</v>
+        <v>11.82726098057809</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>13.13628330586232</v>
+        <v>20.81184068804342</v>
       </c>
       <c r="O9">
-        <v>17.9932207656551</v>
+        <v>28.2869856713092</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.40078086199226</v>
+        <v>16.07795034702833</v>
       </c>
       <c r="C10">
-        <v>7.004876650107135</v>
+        <v>9.175048627501981</v>
       </c>
       <c r="D10">
-        <v>10.66166269034336</v>
+        <v>14.13151845647269</v>
       </c>
       <c r="E10">
-        <v>9.393702412046443</v>
+        <v>14.73485987532015</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>29.74638487711186</v>
+        <v>41.2018468123768</v>
       </c>
       <c r="H10">
-        <v>10.49846417192001</v>
+        <v>17.42941185486354</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.980213439535405</v>
+        <v>8.783907455975818</v>
       </c>
       <c r="K10">
-        <v>13.20883528292209</v>
+        <v>11.64908984749292</v>
       </c>
       <c r="L10">
-        <v>7.950482849302013</v>
+        <v>11.83868952418934</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>12.80069043665172</v>
+        <v>20.71823636293386</v>
       </c>
       <c r="O10">
-        <v>18.07206473972151</v>
+        <v>28.18830927972106</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.97087550869074</v>
+        <v>16.2336981634975</v>
       </c>
       <c r="C11">
-        <v>7.0184951358363</v>
+        <v>9.177405378295663</v>
       </c>
       <c r="D11">
-        <v>10.86337282732177</v>
+        <v>14.14948303306288</v>
       </c>
       <c r="E11">
-        <v>9.465943957104614</v>
+        <v>14.72663488412727</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>30.05420879077886</v>
+        <v>41.17120394327674</v>
       </c>
       <c r="H11">
-        <v>10.48313088901014</v>
+        <v>17.40234553724923</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.959463643436377</v>
+        <v>8.775936995372378</v>
       </c>
       <c r="K11">
-        <v>13.65258285842547</v>
+        <v>11.76229438917656</v>
       </c>
       <c r="L11">
-        <v>8.06920070716154</v>
+        <v>11.84544583862034</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.65022672277755</v>
+        <v>20.67741040862082</v>
       </c>
       <c r="O11">
-        <v>18.12327128922504</v>
+        <v>28.14838904231184</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.18292399715284</v>
+        <v>16.29264914894304</v>
       </c>
       <c r="C12">
-        <v>7.023763450512781</v>
+        <v>9.178338825522273</v>
       </c>
       <c r="D12">
-        <v>10.93974646365763</v>
+        <v>14.15664653089336</v>
       </c>
       <c r="E12">
-        <v>9.49392820823665</v>
+        <v>14.72381940820119</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>30.17486042782608</v>
+        <v>41.16101024985332</v>
       </c>
       <c r="H12">
-        <v>10.47837196664978</v>
+        <v>17.39244333755358</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.951704574397133</v>
+        <v>8.772981058485962</v>
       </c>
       <c r="K12">
-        <v>13.81716755665541</v>
+        <v>11.80510164565433</v>
       </c>
       <c r="L12">
-        <v>8.114233400288249</v>
+        <v>11.84822643463293</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.59353882105418</v>
+        <v>20.66220176179375</v>
       </c>
       <c r="O12">
-        <v>18.14496657702004</v>
+        <v>28.13398715221317</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.13742653564188</v>
+        <v>16.27995503173681</v>
       </c>
       <c r="C13">
-        <v>7.022623849118926</v>
+        <v>9.178135974984373</v>
       </c>
       <c r="D13">
-        <v>10.92329933799157</v>
+        <v>14.15508776784757</v>
       </c>
       <c r="E13">
-        <v>9.487873374687901</v>
+        <v>14.72441247863466</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>30.14869315181839</v>
+        <v>41.16314290408099</v>
       </c>
       <c r="H13">
-        <v>10.47934949058872</v>
+        <v>17.39456051379217</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.953371283149536</v>
+        <v>8.773614905752765</v>
       </c>
       <c r="K13">
-        <v>13.78187446304986</v>
+        <v>11.79588561751614</v>
       </c>
       <c r="L13">
-        <v>8.104531860926167</v>
+        <v>11.84761773475963</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.60573514574663</v>
+        <v>20.66546605918067</v>
       </c>
       <c r="O13">
-        <v>18.14019005779067</v>
+        <v>28.13705704637584</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.98839787273319</v>
+        <v>16.23854893844457</v>
       </c>
       <c r="C14">
-        <v>7.01892632355846</v>
+        <v>9.177481354572494</v>
       </c>
       <c r="D14">
-        <v>10.86965664169098</v>
+        <v>14.15006517323814</v>
       </c>
       <c r="E14">
-        <v>9.468233654473414</v>
+        <v>14.72639726214824</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>30.06405260195926</v>
+        <v>41.17033703216168</v>
       </c>
       <c r="H14">
-        <v>10.48271808641075</v>
+        <v>17.40152391958629</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.958823339008403</v>
+        <v>8.775692561570377</v>
       </c>
       <c r="K14">
-        <v>13.66619239789901</v>
+        <v>11.76581759423836</v>
       </c>
       <c r="L14">
-        <v>8.072904205284365</v>
+        <v>11.84567015907271</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.64555733330845</v>
+        <v>20.67615415497397</v>
       </c>
       <c r="O14">
-        <v>18.12500942746245</v>
+        <v>28.14718985644554</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.89661332217965</v>
+        <v>16.21318142564578</v>
       </c>
       <c r="C15">
-        <v>7.016676023492136</v>
+        <v>9.177085705947208</v>
       </c>
       <c r="D15">
-        <v>10.83679604054134</v>
+        <v>14.14703553966449</v>
       </c>
       <c r="E15">
-        <v>9.456285530701601</v>
+        <v>14.72765193516463</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>30.01274191662143</v>
+        <v>41.17492732902461</v>
       </c>
       <c r="H15">
-        <v>10.48491936169974</v>
+        <v>17.4058344196423</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.962175639426456</v>
+        <v>8.776973291422351</v>
       </c>
       <c r="K15">
-        <v>13.59488486503889</v>
+        <v>11.74739106467973</v>
       </c>
       <c r="L15">
-        <v>8.05354046828891</v>
+        <v>11.84450608388114</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>12.66998644450973</v>
+        <v>20.68273360990322</v>
       </c>
       <c r="O15">
-        <v>18.11601387240697</v>
+        <v>28.15348963130794</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.36298909779432</v>
+        <v>16.06777084526971</v>
       </c>
       <c r="C16">
-        <v>7.004002136745891</v>
+        <v>9.174900370348176</v>
       </c>
       <c r="D16">
-        <v>10.64848218685431</v>
+        <v>14.13039512803393</v>
       </c>
       <c r="E16">
-        <v>9.389069132724714</v>
+        <v>14.73543929987556</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>29.72683569366293</v>
+        <v>41.20404662213618</v>
       </c>
       <c r="H16">
-        <v>10.49961007301309</v>
+        <v>17.4312293033553</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.981583369744914</v>
+        <v>8.784437077667423</v>
       </c>
       <c r="K16">
-        <v>13.17935082919275</v>
+        <v>11.64168512655431</v>
       </c>
       <c r="L16">
-        <v>7.942736756549815</v>
+        <v>11.83827916874333</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>12.81056559216439</v>
+        <v>20.72093965590612</v>
       </c>
       <c r="O16">
-        <v>18.06903540454128</v>
+        <v>28.19101818811182</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.02883601874955</v>
+        <v>15.97857280923133</v>
       </c>
       <c r="C17">
-        <v>6.996423654621855</v>
+        <v>9.17363325154284</v>
       </c>
       <c r="D17">
-        <v>10.53300173454323</v>
+        <v>14.12083358497746</v>
       </c>
       <c r="E17">
-        <v>9.348952475301257</v>
+        <v>14.74075020355242</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>29.55864088242151</v>
+        <v>41.22441995146435</v>
       </c>
       <c r="H17">
-        <v>10.51043439285375</v>
+        <v>17.44742692443338</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.993666821714104</v>
+        <v>8.789127131699438</v>
       </c>
       <c r="K17">
-        <v>12.91825857346588</v>
+        <v>11.57676852681507</v>
       </c>
       <c r="L17">
-        <v>7.874931763347289</v>
+        <v>11.83485678593367</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>12.89735102957288</v>
+        <v>20.74482655031849</v>
       </c>
       <c r="O17">
-        <v>18.04421506777682</v>
+        <v>28.2153136731986</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.83415753054976</v>
+        <v>15.92728767915028</v>
       </c>
       <c r="C18">
-        <v>6.992136452981292</v>
+        <v>9.172931601868866</v>
       </c>
       <c r="D18">
-        <v>10.4666157897117</v>
+        <v>14.11557299800217</v>
       </c>
       <c r="E18">
-        <v>9.326289328812377</v>
+        <v>14.74400121914027</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>29.4645205962501</v>
+        <v>41.23705972971423</v>
       </c>
       <c r="H18">
-        <v>10.51731034508498</v>
+        <v>17.45697079879606</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.000682739876577</v>
+        <v>8.79186570367367</v>
       </c>
       <c r="K18">
-        <v>12.76580857388922</v>
+        <v>11.53941652521639</v>
       </c>
       <c r="L18">
-        <v>7.836004537952272</v>
+        <v>11.83303502977759</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>12.94747640859245</v>
+        <v>20.75873092741091</v>
       </c>
       <c r="O18">
-        <v>18.03137710720488</v>
+        <v>28.22975538686047</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.76781785299369</v>
+        <v>15.90992831894192</v>
       </c>
       <c r="C19">
-        <v>6.99069715705958</v>
+        <v>9.172698714642488</v>
       </c>
       <c r="D19">
-        <v>10.44414660282397</v>
+        <v>14.11383301084192</v>
       </c>
       <c r="E19">
-        <v>9.318686526443051</v>
+        <v>14.74513569661197</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>29.43310074247059</v>
+        <v>41.24149755121792</v>
       </c>
       <c r="H19">
-        <v>10.51974859703009</v>
+        <v>17.46024125854201</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.003069575506713</v>
+        <v>8.79279998330991</v>
       </c>
       <c r="K19">
-        <v>12.71379997582994</v>
+        <v>11.52676855838879</v>
       </c>
       <c r="L19">
-        <v>7.822837867647002</v>
+        <v>11.83244346541939</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>12.96448463454826</v>
+        <v>20.76346712995763</v>
       </c>
       <c r="O19">
-        <v>18.02727435777872</v>
+        <v>28.2347253922541</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.06466445026064</v>
+        <v>15.98806648340847</v>
       </c>
       <c r="C20">
-        <v>6.997222961375724</v>
+        <v>9.173765330494531</v>
       </c>
       <c r="D20">
-        <v>10.54529160988035</v>
+        <v>14.1218267238654</v>
       </c>
       <c r="E20">
-        <v>9.353180431523878</v>
+        <v>14.74016453491095</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>29.57627366912482</v>
+        <v>41.2221557791766</v>
       </c>
       <c r="H20">
-        <v>10.50921449038606</v>
+        <v>17.44567912325545</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.992373717869273</v>
+        <v>8.788623628475287</v>
       </c>
       <c r="K20">
-        <v>12.94628776005788</v>
+        <v>11.58368069478304</v>
       </c>
       <c r="L20">
-        <v>7.88214245831277</v>
+        <v>11.83520593357436</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>12.88809116201922</v>
+        <v>20.74226665329546</v>
       </c>
       <c r="O20">
-        <v>18.04670768568464</v>
+        <v>28.21267897840828</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.03227549102304</v>
+        <v>16.25071206273666</v>
       </c>
       <c r="C21">
-        <v>7.020009343154452</v>
+        <v>9.177672523499375</v>
       </c>
       <c r="D21">
-        <v>10.88541350335962</v>
+        <v>14.15153067493798</v>
       </c>
       <c r="E21">
-        <v>9.473985275726172</v>
+        <v>14.72580617030125</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>30.08880215839286</v>
+        <v>41.16818565968786</v>
       </c>
       <c r="H21">
-        <v>10.48169981614681</v>
+        <v>17.39946917655391</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.957219282731388</v>
+        <v>8.775080614964391</v>
       </c>
       <c r="K21">
-        <v>13.70026453496247</v>
+        <v>11.77465124068571</v>
       </c>
       <c r="L21">
-        <v>8.082192167356315</v>
+        <v>11.84623619596746</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.63385295763007</v>
+        <v>20.67300799207987</v>
       </c>
       <c r="O21">
-        <v>18.1294050232146</v>
+        <v>28.14419419402453</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.64563379957908</v>
+        <v>16.42218350927644</v>
       </c>
       <c r="C22">
-        <v>7.035551057371944</v>
+        <v>9.180464844489093</v>
       </c>
       <c r="D22">
-        <v>11.10762358188827</v>
+        <v>14.17304430269892</v>
       </c>
       <c r="E22">
-        <v>9.556598014707953</v>
+        <v>14.71816544298082</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>30.44760971794685</v>
+        <v>41.14113267953427</v>
       </c>
       <c r="H22">
-        <v>10.46984709694221</v>
+        <v>17.37129211141856</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.934816581896336</v>
+        <v>8.766592500195207</v>
       </c>
       <c r="K22">
-        <v>14.17291901434001</v>
+        <v>11.89909051663517</v>
       </c>
       <c r="L22">
-        <v>8.21337107875714</v>
+        <v>11.85473890153565</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.46936707933421</v>
+        <v>20.62920744966369</v>
       </c>
       <c r="O22">
-        <v>18.19692973856189</v>
+        <v>28.10360344540277</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.31877776680912</v>
+        <v>16.33069957476836</v>
       </c>
       <c r="C23">
-        <v>7.027196178862197</v>
+        <v>9.178952838148083</v>
       </c>
       <c r="D23">
-        <v>10.98905107393034</v>
+        <v>14.16137128629449</v>
       </c>
       <c r="E23">
-        <v>9.512171265678424</v>
+        <v>14.72208418470722</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>30.2539037290025</v>
+        <v>41.15481876150967</v>
       </c>
       <c r="H23">
-        <v>10.47559538710024</v>
+        <v>17.38614563350499</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.94672158532603</v>
+        <v>8.77108963965031</v>
       </c>
       <c r="K23">
-        <v>13.92248629827408</v>
+        <v>11.83272075792556</v>
       </c>
       <c r="L23">
-        <v>8.143328362949466</v>
+        <v>11.85008309981434</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.55701243867331</v>
+        <v>20.65245103778388</v>
       </c>
       <c r="O23">
-        <v>18.1596250678464</v>
+        <v>28.12488593299777</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.04847441640719</v>
+        <v>15.98377440175826</v>
       </c>
       <c r="C24">
-        <v>6.996861377592624</v>
+        <v>9.173705533985792</v>
       </c>
       <c r="D24">
-        <v>10.53973533618845</v>
+        <v>14.1213769889045</v>
       </c>
       <c r="E24">
-        <v>9.351267725217207</v>
+        <v>14.74042869982295</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>29.56829386484654</v>
+        <v>41.22317652445732</v>
       </c>
       <c r="H24">
-        <v>10.50976397836556</v>
+        <v>17.44646858258235</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.992958115110246</v>
+        <v>8.788851130821877</v>
       </c>
       <c r="K24">
-        <v>12.93362306933838</v>
+        <v>11.58055579609774</v>
       </c>
       <c r="L24">
-        <v>7.878882330138542</v>
+        <v>11.83504762958759</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>12.89227682576267</v>
+        <v>20.74342344848439</v>
       </c>
       <c r="O24">
-        <v>18.04557632155292</v>
+        <v>28.21386864774728</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.58365526528709</v>
+        <v>15.61051189918863</v>
       </c>
       <c r="C25">
-        <v>6.966877865608071</v>
+        <v>9.169085763843601</v>
       </c>
       <c r="D25">
-        <v>10.0567107519708</v>
+        <v>14.08738534461943</v>
       </c>
       <c r="E25">
-        <v>9.193406158534884</v>
+        <v>14.76772429991967</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>28.9285380784458</v>
+        <v>41.33213102920185</v>
       </c>
       <c r="H25">
-        <v>10.57128954420533</v>
+        <v>17.52023269670111</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.045356294922939</v>
+        <v>8.809577580255011</v>
       </c>
       <c r="K25">
-        <v>11.77987437563867</v>
+        <v>11.30818586953269</v>
       </c>
       <c r="L25">
-        <v>7.59654484843634</v>
+        <v>11.82444454546773</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>13.26198888126021</v>
+        <v>20.84787533631796</v>
       </c>
       <c r="O25">
-        <v>17.97712588847258</v>
+        <v>28.3277247275705</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_159/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_159/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.33839062041541</v>
+        <v>14.42605718672779</v>
       </c>
       <c r="C2">
-        <v>9.166594144469427</v>
+        <v>6.947097659750605</v>
       </c>
       <c r="D2">
-        <v>14.07034218581211</v>
+        <v>9.704809927710302</v>
       </c>
       <c r="E2">
-        <v>14.79430189541348</v>
+        <v>9.09057210277447</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>41.44253356168132</v>
+        <v>28.53968245850655</v>
       </c>
       <c r="H2">
-        <v>17.58203912378771</v>
+        <v>10.63606988372994</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.826199713099319</v>
+        <v>5.086185227326435</v>
       </c>
       <c r="K2">
-        <v>11.10866066631313</v>
+        <v>10.85469935174837</v>
       </c>
       <c r="L2">
-        <v>11.8215222220309</v>
+        <v>7.392349239790544</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>20.93027811675206</v>
+        <v>13.54212483265357</v>
       </c>
       <c r="O2">
-        <v>28.42691061579772</v>
+        <v>17.96993148881815</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.15663643075777</v>
+        <v>13.59415765881028</v>
       </c>
       <c r="C3">
-        <v>9.165480868125467</v>
+        <v>6.935098973175406</v>
       </c>
       <c r="D3">
-        <v>14.06382243465257</v>
+        <v>9.469977493266819</v>
       </c>
       <c r="E3">
-        <v>14.81636582425137</v>
+        <v>9.029149686632342</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>41.53610834912766</v>
+        <v>28.32517911798625</v>
       </c>
       <c r="H3">
-        <v>17.62860842368504</v>
+        <v>10.69129708115305</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.838320442575942</v>
+        <v>5.11529501149778</v>
       </c>
       <c r="K3">
-        <v>10.97476941970377</v>
+        <v>10.18027333396167</v>
       </c>
       <c r="L3">
-        <v>11.82261383206795</v>
+        <v>7.25690408568808</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>20.98957976191751</v>
+        <v>13.73736719423154</v>
       </c>
       <c r="O3">
-        <v>28.50369667394247</v>
+        <v>17.99010702050709</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.04668084953194</v>
+        <v>13.06094060923947</v>
       </c>
       <c r="C4">
-        <v>9.165083734739749</v>
+        <v>6.928417748655067</v>
       </c>
       <c r="D4">
-        <v>14.06231482897556</v>
+        <v>9.328060149384903</v>
       </c>
       <c r="E4">
-        <v>14.83191479966953</v>
+        <v>8.995472940114935</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>41.60278602852386</v>
+        <v>28.21678246553785</v>
       </c>
       <c r="H4">
-        <v>17.65951432980759</v>
+        <v>10.73053188148913</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.846186883909763</v>
+        <v>5.133890425724561</v>
       </c>
       <c r="K4">
-        <v>10.89344953719039</v>
+        <v>9.742772490928111</v>
       </c>
       <c r="L4">
-        <v>11.82480708734968</v>
+        <v>7.175410753962723</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>21.02770541563973</v>
+        <v>13.86004586071329</v>
       </c>
       <c r="O4">
-        <v>28.55555840136425</v>
+        <v>18.01421691158762</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.00233554053788</v>
+        <v>12.83819388916573</v>
       </c>
       <c r="C5">
-        <v>9.164994345513232</v>
+        <v>6.925866599690932</v>
       </c>
       <c r="D5">
-        <v>14.06233001505115</v>
+        <v>9.270871409199486</v>
       </c>
       <c r="E5">
-        <v>14.83875490236781</v>
+        <v>8.9827571597743</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>41.63227234944149</v>
+        <v>28.17832904763045</v>
       </c>
       <c r="H5">
-        <v>17.67269049347093</v>
+        <v>10.74782200603186</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.849499510513446</v>
+        <v>5.141651378490684</v>
       </c>
       <c r="K5">
-        <v>10.86057038679627</v>
+        <v>9.558612019821631</v>
       </c>
       <c r="L5">
-        <v>11.82608498272208</v>
+        <v>7.142655236631117</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>21.04367423421088</v>
+        <v>13.91076156044703</v>
       </c>
       <c r="O5">
-        <v>28.57787739107056</v>
+        <v>18.02689541488764</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.99500140112885</v>
+        <v>12.80088358318775</v>
       </c>
       <c r="C6">
-        <v>9.164983890356995</v>
+        <v>6.925453313195957</v>
       </c>
       <c r="D6">
-        <v>14.06237061269991</v>
+        <v>9.261416273244189</v>
       </c>
       <c r="E6">
-        <v>14.83992113449052</v>
+        <v>8.980706334468218</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>41.6373081897915</v>
+        <v>28.17228489566022</v>
       </c>
       <c r="H6">
-        <v>17.67491353208473</v>
+        <v>10.75077056482096</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.850056040369751</v>
+        <v>5.142951189357138</v>
       </c>
       <c r="K6">
-        <v>10.85512752643016</v>
+        <v>9.527677906259505</v>
       </c>
       <c r="L6">
-        <v>11.82632040820547</v>
+        <v>7.137244580186904</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>21.04635199145783</v>
+        <v>13.91922708985552</v>
       </c>
       <c r="O6">
-        <v>28.58165498807267</v>
+        <v>18.02917027038751</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.04608085573448</v>
+        <v>13.05795838964518</v>
       </c>
       <c r="C7">
-        <v>9.16508223531593</v>
+        <v>6.928382649845714</v>
       </c>
       <c r="D7">
-        <v>14.06231248232276</v>
+        <v>9.327286179215424</v>
       </c>
       <c r="E7">
-        <v>14.83200500739462</v>
+        <v>8.995297381114272</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>41.60317432573544</v>
+        <v>28.21624091029016</v>
       </c>
       <c r="H7">
-        <v>17.65968967220154</v>
+        <v>10.73075984035406</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.846231125555894</v>
+        <v>5.133994348837444</v>
       </c>
       <c r="K7">
-        <v>10.89300502058179</v>
+        <v>9.740312608869475</v>
       </c>
       <c r="L7">
-        <v>11.82482276473162</v>
+        <v>7.174967120654649</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>21.02791902466179</v>
+        <v>13.86072687739087</v>
       </c>
       <c r="O7">
-        <v>28.55585460630247</v>
+        <v>18.01437646860049</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27541085573456</v>
+        <v>14.14397055104647</v>
       </c>
       <c r="C8">
-        <v>9.166151092922313</v>
+        <v>6.942817509816254</v>
       </c>
       <c r="D8">
-        <v>14.06757752831311</v>
+        <v>9.623411833985129</v>
       </c>
       <c r="E8">
-        <v>14.80149437875584</v>
+        <v>9.068551867540972</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>41.47288152470301</v>
+        <v>28.46080241115692</v>
       </c>
       <c r="H8">
-        <v>17.59761653572248</v>
+        <v>10.65398408042105</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.83029106714835</v>
+        <v>5.096073456815187</v>
       </c>
       <c r="K8">
-        <v>11.06233172076797</v>
+        <v>10.62701655728783</v>
       </c>
       <c r="L8">
-        <v>11.82158323179333</v>
+        <v>7.345321302453257</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>20.95037029969135</v>
+        <v>13.60887534065687</v>
       </c>
       <c r="O8">
-        <v>28.45240751999965</v>
+        <v>17.97439847069336</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.73595354289211</v>
+        <v>16.08955825995125</v>
       </c>
       <c r="C9">
-        <v>9.170501623265402</v>
+        <v>6.976617472585432</v>
       </c>
       <c r="D9">
-        <v>14.09760243227134</v>
+        <v>10.21900254878492</v>
       </c>
       <c r="E9">
-        <v>14.75752456394244</v>
+        <v>9.244491925187608</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.29073300237437</v>
+        <v>29.13100609621353</v>
       </c>
       <c r="H9">
-        <v>17.49422199037434</v>
+        <v>10.54742532741257</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.802385237399479</v>
+        <v>5.027361659456346</v>
       </c>
       <c r="K9">
-        <v>11.39986687117076</v>
+        <v>12.18022961605898</v>
       </c>
       <c r="L9">
-        <v>11.82726098057809</v>
+        <v>7.69116042519284</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>20.81184068804342</v>
+        <v>13.13628330586222</v>
       </c>
       <c r="O9">
-        <v>28.2869856713092</v>
+        <v>17.99322076565503</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.07795034702833</v>
+        <v>17.40078086199227</v>
       </c>
       <c r="C10">
-        <v>9.175048627501981</v>
+        <v>7.004876650107128</v>
       </c>
       <c r="D10">
-        <v>14.13151845647269</v>
+        <v>10.66166269034347</v>
       </c>
       <c r="E10">
-        <v>14.73485987532015</v>
+        <v>9.393702412046501</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>41.2018468123768</v>
+        <v>29.7463848771118</v>
       </c>
       <c r="H10">
-        <v>17.42941185486354</v>
+        <v>10.49846417192</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.783907455975818</v>
+        <v>4.980213439535376</v>
       </c>
       <c r="K10">
-        <v>11.64908984749292</v>
+        <v>13.20883528292213</v>
       </c>
       <c r="L10">
-        <v>11.83868952418934</v>
+        <v>7.950482849302028</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>20.71823636293386</v>
+        <v>12.80069043665175</v>
       </c>
       <c r="O10">
-        <v>28.18830927972106</v>
+        <v>18.07206473972146</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.2336981634975</v>
+        <v>17.97087550869072</v>
       </c>
       <c r="C11">
-        <v>9.177405378295663</v>
+        <v>7.018495135836307</v>
       </c>
       <c r="D11">
-        <v>14.14948303306288</v>
+        <v>10.86337282732181</v>
       </c>
       <c r="E11">
-        <v>14.72663488412727</v>
+        <v>9.465943957104576</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>41.17120394327674</v>
+        <v>30.05420879077864</v>
       </c>
       <c r="H11">
-        <v>17.40234553724923</v>
+        <v>10.48313088901008</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.775936995372378</v>
+        <v>4.959463643436309</v>
       </c>
       <c r="K11">
-        <v>11.76229438917656</v>
+        <v>13.65258285842553</v>
       </c>
       <c r="L11">
-        <v>11.84544583862034</v>
+        <v>8.069200707161546</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>20.67741040862082</v>
+        <v>12.65022672277752</v>
       </c>
       <c r="O11">
-        <v>28.14838904231184</v>
+        <v>18.12327128922492</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.29264914894304</v>
+        <v>18.18292399715286</v>
       </c>
       <c r="C12">
-        <v>9.178338825522273</v>
+        <v>7.02376345051265</v>
       </c>
       <c r="D12">
-        <v>14.15664653089336</v>
+        <v>10.93974646365756</v>
       </c>
       <c r="E12">
-        <v>14.72381940820119</v>
+        <v>9.493928208236477</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>41.16101024985332</v>
+        <v>30.1748604278261</v>
       </c>
       <c r="H12">
-        <v>17.39244333755358</v>
+        <v>10.47837196664968</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.772981058485962</v>
+        <v>4.951704574397069</v>
       </c>
       <c r="K12">
-        <v>11.80510164565433</v>
+        <v>13.8171675566554</v>
       </c>
       <c r="L12">
-        <v>11.84822643463293</v>
+        <v>8.114233400288198</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>20.66220176179375</v>
+        <v>12.59353882105411</v>
       </c>
       <c r="O12">
-        <v>28.13398715221317</v>
+        <v>18.14496657701998</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.27995503173681</v>
+        <v>18.13742653564189</v>
       </c>
       <c r="C13">
-        <v>9.178135974984373</v>
+        <v>7.022623849118799</v>
       </c>
       <c r="D13">
-        <v>14.15508776784757</v>
+        <v>10.9232993379916</v>
       </c>
       <c r="E13">
-        <v>14.72441247863466</v>
+        <v>9.487873374687885</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>41.16314290408099</v>
+        <v>30.14869315181831</v>
       </c>
       <c r="H13">
-        <v>17.39456051379217</v>
+        <v>10.47934949058869</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.773614905752765</v>
+        <v>4.953371283149503</v>
       </c>
       <c r="K13">
-        <v>11.79588561751614</v>
+        <v>13.7818744630499</v>
       </c>
       <c r="L13">
-        <v>11.84761773475963</v>
+        <v>8.104531860926167</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>20.66546605918067</v>
+        <v>12.60573514574659</v>
       </c>
       <c r="O13">
-        <v>28.13705704637584</v>
+        <v>18.14019005779064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.23854893844457</v>
+        <v>17.98839787273318</v>
       </c>
       <c r="C14">
-        <v>9.177481354572494</v>
+        <v>7.018926323558716</v>
       </c>
       <c r="D14">
-        <v>14.15006517323814</v>
+        <v>10.86965664169091</v>
       </c>
       <c r="E14">
-        <v>14.72639726214824</v>
+        <v>9.468233654473368</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>41.17033703216168</v>
+        <v>30.06405260195917</v>
       </c>
       <c r="H14">
-        <v>17.40152391958629</v>
+        <v>10.4827180864107</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.775692561570377</v>
+        <v>4.958823339008435</v>
       </c>
       <c r="K14">
-        <v>11.76581759423836</v>
+        <v>13.66619239789904</v>
       </c>
       <c r="L14">
-        <v>11.84567015907271</v>
+        <v>8.072904205284278</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>20.67615415497397</v>
+        <v>12.64555733330845</v>
       </c>
       <c r="O14">
-        <v>28.14718985644554</v>
+        <v>18.12500942746238</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.21318142564578</v>
+        <v>17.89661332217964</v>
       </c>
       <c r="C15">
-        <v>9.177085705947208</v>
+        <v>7.016676023492263</v>
       </c>
       <c r="D15">
-        <v>14.14703553966449</v>
+        <v>10.83679604054131</v>
       </c>
       <c r="E15">
-        <v>14.72765193516463</v>
+        <v>9.456285530701521</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>41.17492732902461</v>
+        <v>30.01274191662142</v>
       </c>
       <c r="H15">
-        <v>17.4058344196423</v>
+        <v>10.4849193616997</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.776973291422351</v>
+        <v>4.962175639426459</v>
       </c>
       <c r="K15">
-        <v>11.74739106467973</v>
+        <v>13.59488486503894</v>
       </c>
       <c r="L15">
-        <v>11.84450608388114</v>
+        <v>8.053540468288832</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>20.68273360990322</v>
+        <v>12.66998644450976</v>
       </c>
       <c r="O15">
-        <v>28.15348963130794</v>
+        <v>18.11601387240696</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.06777084526971</v>
+        <v>17.36298909779432</v>
       </c>
       <c r="C16">
-        <v>9.174900370348176</v>
+        <v>7.004002136745885</v>
       </c>
       <c r="D16">
-        <v>14.13039512803393</v>
+        <v>10.64848218685441</v>
       </c>
       <c r="E16">
-        <v>14.73543929987556</v>
+        <v>9.389069132724719</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>41.20404662213618</v>
+        <v>29.72683569366295</v>
       </c>
       <c r="H16">
-        <v>17.4312293033553</v>
+        <v>10.49961007301303</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.784437077667423</v>
+        <v>4.981583369744914</v>
       </c>
       <c r="K16">
-        <v>11.64168512655431</v>
+        <v>13.17935082919281</v>
       </c>
       <c r="L16">
-        <v>11.83827916874333</v>
+        <v>7.94273675654979</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>20.72093965590612</v>
+        <v>12.81056559216439</v>
       </c>
       <c r="O16">
-        <v>28.19101818811182</v>
+        <v>18.06903540454116</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.97857280923133</v>
+        <v>17.02883601874955</v>
       </c>
       <c r="C17">
-        <v>9.17363325154284</v>
+        <v>6.99642365462185</v>
       </c>
       <c r="D17">
-        <v>14.12083358497746</v>
+        <v>10.53300173454328</v>
       </c>
       <c r="E17">
-        <v>14.74075020355242</v>
+        <v>9.348952475301259</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>41.22441995146435</v>
+        <v>29.55864088242135</v>
       </c>
       <c r="H17">
-        <v>17.44742692443338</v>
+        <v>10.5104343928538</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.789127131699438</v>
+        <v>4.993666821714106</v>
       </c>
       <c r="K17">
-        <v>11.57676852681507</v>
+        <v>12.9182585734659</v>
       </c>
       <c r="L17">
-        <v>11.83485678593367</v>
+        <v>7.874931763347293</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>20.74482655031849</v>
+        <v>12.89735102957288</v>
       </c>
       <c r="O17">
-        <v>28.2153136731986</v>
+        <v>18.04421506777678</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.92728767915028</v>
+        <v>16.83415753054976</v>
       </c>
       <c r="C18">
-        <v>9.172931601868866</v>
+        <v>6.992136452981154</v>
       </c>
       <c r="D18">
-        <v>14.11557299800217</v>
+        <v>10.46661578971164</v>
       </c>
       <c r="E18">
-        <v>14.74400121914027</v>
+        <v>9.32628932881234</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>41.23705972971423</v>
+        <v>29.46452059625017</v>
       </c>
       <c r="H18">
-        <v>17.45697079879606</v>
+        <v>10.51731034508493</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.79186570367367</v>
+        <v>5.000682739876576</v>
       </c>
       <c r="K18">
-        <v>11.53941652521639</v>
+        <v>12.76580857388917</v>
       </c>
       <c r="L18">
-        <v>11.83303502977759</v>
+        <v>7.836004537952303</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>20.75873092741091</v>
+        <v>12.94747640859238</v>
       </c>
       <c r="O18">
-        <v>28.22975538686047</v>
+        <v>18.03137710720487</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.90992831894192</v>
+        <v>16.76781785299371</v>
       </c>
       <c r="C19">
-        <v>9.172698714642488</v>
+        <v>6.990697157059447</v>
       </c>
       <c r="D19">
-        <v>14.11383301084192</v>
+        <v>10.44414660282388</v>
       </c>
       <c r="E19">
-        <v>14.74513569661197</v>
+        <v>9.318686526442969</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>41.24149755121792</v>
+        <v>29.43310074247057</v>
       </c>
       <c r="H19">
-        <v>17.46024125854201</v>
+        <v>10.51974859703003</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.79279998330991</v>
+        <v>5.003069575506647</v>
       </c>
       <c r="K19">
-        <v>11.52676855838879</v>
+        <v>12.71379997582997</v>
       </c>
       <c r="L19">
-        <v>11.83244346541939</v>
+        <v>7.822837867646901</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>20.76346712995763</v>
+        <v>12.96448463454822</v>
       </c>
       <c r="O19">
-        <v>28.2347253922541</v>
+        <v>18.02727435777868</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.98806648340847</v>
+        <v>17.06466445026065</v>
       </c>
       <c r="C20">
-        <v>9.173765330494531</v>
+        <v>6.997222961375736</v>
       </c>
       <c r="D20">
-        <v>14.1218267238654</v>
+        <v>10.54529160988026</v>
       </c>
       <c r="E20">
-        <v>14.74016453491095</v>
+        <v>9.353180431523871</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>41.2221557791766</v>
+        <v>29.57627366912491</v>
       </c>
       <c r="H20">
-        <v>17.44567912325545</v>
+        <v>10.50921449038601</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.788623628475287</v>
+        <v>4.992373717869368</v>
       </c>
       <c r="K20">
-        <v>11.58368069478304</v>
+        <v>12.94628776005787</v>
       </c>
       <c r="L20">
-        <v>11.83520593357436</v>
+        <v>7.882142458312775</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>20.74226665329546</v>
+        <v>12.88809116201922</v>
       </c>
       <c r="O20">
-        <v>28.21267897840828</v>
+        <v>18.04670768568464</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.25071206273666</v>
+        <v>18.03227549102303</v>
       </c>
       <c r="C21">
-        <v>9.177672523499375</v>
+        <v>7.020009343154333</v>
       </c>
       <c r="D21">
-        <v>14.15153067493798</v>
+        <v>10.88541350335968</v>
       </c>
       <c r="E21">
-        <v>14.72580617030125</v>
+        <v>9.473985275726218</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>41.16818565968786</v>
+        <v>30.0888021583928</v>
       </c>
       <c r="H21">
-        <v>17.39946917655391</v>
+        <v>10.4816998161468</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.775080614964391</v>
+        <v>4.957219282731388</v>
       </c>
       <c r="K21">
-        <v>11.77465124068571</v>
+        <v>13.70026453496248</v>
       </c>
       <c r="L21">
-        <v>11.84623619596746</v>
+        <v>8.082192167356352</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>20.67300799207987</v>
+        <v>12.6338529576301</v>
       </c>
       <c r="O21">
-        <v>28.14419419402453</v>
+        <v>18.1294050232146</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.42218350927644</v>
+        <v>18.64563379957909</v>
       </c>
       <c r="C22">
-        <v>9.180464844489093</v>
+        <v>7.035551057372063</v>
       </c>
       <c r="D22">
-        <v>14.17304430269892</v>
+        <v>11.10762358188824</v>
       </c>
       <c r="E22">
-        <v>14.71816544298082</v>
+        <v>9.556598014707914</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>41.14113267953427</v>
+        <v>30.44760971794684</v>
       </c>
       <c r="H22">
-        <v>17.37129211141856</v>
+        <v>10.46984709694221</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.766592500195207</v>
+        <v>4.9348165818964</v>
       </c>
       <c r="K22">
-        <v>11.89909051663517</v>
+        <v>14.17291901433999</v>
       </c>
       <c r="L22">
-        <v>11.85473890153565</v>
+        <v>8.213371078757142</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>20.62920744966369</v>
+        <v>12.46936707933418</v>
       </c>
       <c r="O22">
-        <v>28.10360344540277</v>
+        <v>18.19692973856186</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.33069957476836</v>
+        <v>18.31877776680913</v>
       </c>
       <c r="C23">
-        <v>9.178952838148083</v>
+        <v>7.027196178862297</v>
       </c>
       <c r="D23">
-        <v>14.16137128629449</v>
+        <v>10.98905107393033</v>
       </c>
       <c r="E23">
-        <v>14.72208418470722</v>
+        <v>9.512171265678349</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>41.15481876150967</v>
+        <v>30.25390372900248</v>
       </c>
       <c r="H23">
-        <v>17.38614563350499</v>
+        <v>10.47559538710031</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.77108963965031</v>
+        <v>4.946721585325968</v>
       </c>
       <c r="K23">
-        <v>11.83272075792556</v>
+        <v>13.92248629827409</v>
       </c>
       <c r="L23">
-        <v>11.85008309981434</v>
+        <v>8.143328362949376</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>20.65245103778388</v>
+        <v>12.55701243867331</v>
       </c>
       <c r="O23">
-        <v>28.12488593299777</v>
+        <v>18.15962506784637</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.98377440175826</v>
+        <v>17.0484744164072</v>
       </c>
       <c r="C24">
-        <v>9.173705533985792</v>
+        <v>6.996861377592613</v>
       </c>
       <c r="D24">
-        <v>14.1213769889045</v>
+        <v>10.53973533618839</v>
       </c>
       <c r="E24">
-        <v>14.74042869982295</v>
+        <v>9.351267725217163</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>41.22317652445732</v>
+        <v>29.56829386484661</v>
       </c>
       <c r="H24">
-        <v>17.44646858258235</v>
+        <v>10.50976397836551</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.788851130821877</v>
+        <v>4.992958115110246</v>
       </c>
       <c r="K24">
-        <v>11.58055579609774</v>
+        <v>12.93362306933838</v>
       </c>
       <c r="L24">
-        <v>11.83504762958759</v>
+        <v>7.878882330138495</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>20.74342344848439</v>
+        <v>12.89227682576267</v>
       </c>
       <c r="O24">
-        <v>28.21386864774728</v>
+        <v>18.04557632155292</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.61051189918863</v>
+        <v>15.5836552652871</v>
       </c>
       <c r="C25">
-        <v>9.169085763843601</v>
+        <v>6.966877865608061</v>
       </c>
       <c r="D25">
-        <v>14.08738534461943</v>
+        <v>10.05671075197074</v>
       </c>
       <c r="E25">
-        <v>14.76772429991967</v>
+        <v>9.193406158534895</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>41.33213102920185</v>
+        <v>28.9285380784458</v>
       </c>
       <c r="H25">
-        <v>17.52023269670111</v>
+        <v>10.57128954420534</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.809577580255011</v>
+        <v>5.045356294923006</v>
       </c>
       <c r="K25">
-        <v>11.30818586953269</v>
+        <v>11.77987437563867</v>
       </c>
       <c r="L25">
-        <v>11.82444454546773</v>
+        <v>7.596544848436346</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>20.84787533631796</v>
+        <v>13.26198888126021</v>
       </c>
       <c r="O25">
-        <v>28.3277247275705</v>
+        <v>17.97712588847258</v>
       </c>
     </row>
   </sheetData>
